--- a/biology/Neurosciences/Gyrus_fusiforme/Gyrus_fusiforme.xlsx
+++ b/biology/Neurosciences/Gyrus_fusiforme/Gyrus_fusiforme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gyrus fusiforme T4 (ou gyrus temporal latéral) est un gyrus de la face inférieure du lobe temporal du cortex cérébral.
 Il est le quatrième gyrus temporal, ou donc dit aussi T4 . Il est compris entre la scissure collatérale, en dedans, et la scissure temporo-occipitale, en dehors.
@@ -522,9 +534,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Gyrus fusiforme est impliqué dans la perception des visages[1], plus particulièrement au niveau de la région appelée l'aire fusiforme des visages (en) (en anglais : fusiform face area, FFA)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Gyrus fusiforme est impliqué dans la perception des visages, plus particulièrement au niveau de la région appelée l'aire fusiforme des visages (en) (en anglais : fusiform face area, FFA).
 </t>
         </is>
       </c>
